--- a/src/base/infos.xlsx
+++ b/src/base/infos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonio.castro\Documents\Envio de Horas - Script\scriptsPlanilhas\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonio.castro\Documents\Envio de Horas - Script\worksheetAutomationScript\src\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E22FCF2-6B83-4C84-A8B8-4F7BC3D0B329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB96736-6128-4715-88F3-9420D8513DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>Nome</t>
   </si>
@@ -59,96 +59,18 @@
     <t>alexandre.alves@portoseguro.com.br</t>
   </si>
   <si>
-    <t>Daniel Junior</t>
-  </si>
-  <si>
-    <t>P0662152</t>
-  </si>
-  <si>
-    <t>danielcoli.junior@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>P0659014</t>
-  </si>
-  <si>
-    <t>eduardo.watanabe@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>P0662789</t>
-  </si>
-  <si>
-    <t>gabriel.josegoncalves@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>P0660244</t>
-  </si>
-  <si>
-    <t>hugo.santos@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>Jefferson Santos</t>
-  </si>
-  <si>
-    <t>P0645976</t>
-  </si>
-  <si>
-    <t>jefferson.barros@portoseguro.com.br</t>
-  </si>
-  <si>
     <t>Lucas Prado</t>
   </si>
   <si>
     <t>P0653573</t>
   </si>
   <si>
-    <t>Odirlei Paim</t>
-  </si>
-  <si>
-    <t>P0632938</t>
-  </si>
-  <si>
-    <t>odirlei.paim@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>Rafael Ministro</t>
-  </si>
-  <si>
-    <t>P0661077</t>
-  </si>
-  <si>
-    <t>rafael.ministro@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>Rafael Soares</t>
-  </si>
-  <si>
-    <t>P0661201</t>
-  </si>
-  <si>
-    <t>rafael.salles@portoseguro.com.br</t>
-  </si>
-  <si>
     <t>Squad</t>
   </si>
   <si>
     <t>Gerente de Projetos</t>
   </si>
   <si>
-    <t>Warley Araujo</t>
-  </si>
-  <si>
-    <t>Aguido Oliveira</t>
-  </si>
-  <si>
-    <t>Renan Viana</t>
-  </si>
-  <si>
-    <t>Matheus Menegat</t>
-  </si>
-  <si>
-    <t>Samir Souza</t>
-  </si>
-  <si>
     <t>Caio Gaspar</t>
   </si>
   <si>
@@ -164,9 +86,6 @@
     <t>Caio Haag</t>
   </si>
   <si>
-    <t xml:space="preserve">Hugo Santos </t>
-  </si>
-  <si>
     <t>Portonet</t>
   </si>
   <si>
@@ -179,33 +98,9 @@
     <t>Antonio Neto (11) 99183-1627</t>
   </si>
   <si>
-    <t>GIW</t>
-  </si>
-  <si>
     <t>Lorraina Silva (17) 99234-4017</t>
   </si>
   <si>
-    <t>Autenticação e Autorização</t>
-  </si>
-  <si>
-    <t>Gestão Financeira Bank</t>
-  </si>
-  <si>
-    <t>Especialista Tribo Pós-vendas</t>
-  </si>
-  <si>
-    <t>Acomp. e Aviso de Sinistros</t>
-  </si>
-  <si>
-    <t>Comunicação</t>
-  </si>
-  <si>
-    <t>Incentivos e Campanhas</t>
-  </si>
-  <si>
-    <t>Minha Carteira e Comissões</t>
-  </si>
-  <si>
     <t>Especialista ECM</t>
   </si>
   <si>
@@ -215,12 +110,6 @@
     <t>rafael.comar@portoseguro.com.br</t>
   </si>
   <si>
-    <t xml:space="preserve">warley.araujo@portoseguro.com.br </t>
-  </si>
-  <si>
-    <t xml:space="preserve">P0665382 </t>
-  </si>
-  <si>
     <t>caio.haag@portoseguro.com.br</t>
   </si>
   <si>
@@ -257,72 +146,18 @@
     <t>P0656535</t>
   </si>
   <si>
-    <t>aguido.oliveira@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>P0658096</t>
-  </si>
-  <si>
-    <t>renan.carvalhoviana@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>P0661074</t>
-  </si>
-  <si>
-    <t>matheus.menegat@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>P0662790</t>
-  </si>
-  <si>
-    <t>joao.kikuchi@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>P0663510</t>
-  </si>
-  <si>
-    <t>samir.souza@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>P0662902</t>
-  </si>
-  <si>
-    <t>edilson.santos@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>P0645055</t>
-  </si>
-  <si>
-    <t>samuel.levi@portoseguro.com.br</t>
-  </si>
-  <si>
-    <t>P0656586</t>
-  </si>
-  <si>
     <t>Centro de Custo Pagador</t>
   </si>
   <si>
     <t>Projeto</t>
   </si>
   <si>
-    <t>COL</t>
-  </si>
-  <si>
     <t>Coordenador</t>
   </si>
   <si>
-    <t>00001.00001.001.7.317</t>
-  </si>
-  <si>
-    <t>00001.00001.001.8.185</t>
-  </si>
-  <si>
     <t>00001.00001.001.2.364</t>
   </si>
   <si>
-    <t>00001.00001.001.3.335</t>
-  </si>
-  <si>
     <t>00001.00001.001.4.399</t>
   </si>
   <si>
@@ -335,36 +170,9 @@
     <t>Flademir Junior</t>
   </si>
   <si>
-    <t>Reginaldo Nicola</t>
-  </si>
-  <si>
-    <t>Nova Home e Menus</t>
-  </si>
-  <si>
-    <t>Sustentação</t>
-  </si>
-  <si>
-    <t>Visão 360 Cliente</t>
-  </si>
-  <si>
-    <t>Eduardo Murakoshi</t>
-  </si>
-  <si>
     <t>Bryan Santos</t>
   </si>
   <si>
-    <t>Edilson S Junior</t>
-  </si>
-  <si>
-    <t>Gabriel Goncalves</t>
-  </si>
-  <si>
-    <t>Joao Kikuchi</t>
-  </si>
-  <si>
-    <t>Samuel Gomes</t>
-  </si>
-  <si>
     <t>Yuri Lookin</t>
   </si>
   <si>
@@ -378,9 +186,6 @@
   </si>
   <si>
     <t>Desenvolvedor Pleno</t>
-  </si>
-  <si>
-    <t>Desenvolvedor Sênior</t>
   </si>
   <si>
     <t>Desenvolvedor Junior</t>
@@ -462,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -481,9 +286,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,13 +763,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I1048568"/>
+  <dimension ref="A1:I1048552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -998,764 +800,299 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>102</v>
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>102</v>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1048558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048543" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048544" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9389C1DC-54CB-42D9-A528-DE65403DA109}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{E671286C-B545-41DF-88C0-3F49819550AD}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{32190971-98C5-40CA-96C2-877159661EBC}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{32190971-98C5-40CA-96C2-877159661EBC}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>